--- a/MySelf/Tai-chinh-ca-nhan.xlsx
+++ b/MySelf/Tai-chinh-ca-nhan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PageDocument\PageDocument\MySelf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Column1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Phương pháp 3 tài khoản</t>
   </si>
@@ -59,18 +56,6 @@
     <t>Đi lại</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -81,6 +66,36 @@
   </si>
   <si>
     <t>Khác</t>
+  </si>
+  <si>
+    <t>5/1/2015</t>
+  </si>
+  <si>
+    <t>Cơm</t>
+  </si>
+  <si>
+    <t>Tên Món</t>
+  </si>
+  <si>
+    <t>Cá</t>
+  </si>
+  <si>
+    <t>Cơm2</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>1 Tháng</t>
+  </si>
+  <si>
+    <t>Số Lượng (Kg)</t>
+  </si>
+  <si>
+    <t>Sài Trong Buổi (Chén)</t>
+  </si>
+  <si>
+    <t>Số Tiền</t>
   </si>
 </sst>
 </file>
@@ -122,10 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,12 +185,12 @@
     <tableColumn id="1" name="DATE">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="S(Bắt buộc)" dataDxfId="2"/>
-    <tableColumn id="3" name="T(15%)" dataDxfId="0"/>
-    <tableColumn id="4" name="C(Còn lại)" dataDxfId="1"/>
+    <tableColumn id="2" name="S(Bắt buộc)" dataDxfId="5"/>
+    <tableColumn id="3" name="T(15%)" dataDxfId="4"/>
+    <tableColumn id="4" name="C(Còn lại)" dataDxfId="3"/>
     <tableColumn id="5" name="Ghi chú"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -184,12 +200,37 @@
   <tableColumns count="6">
     <tableColumn id="1" name="STT"/>
     <tableColumn id="2" name="Tiền trọ"/>
-    <tableColumn id="3" name="Ăn" dataDxfId="5"/>
-    <tableColumn id="4" name="Đi lại" dataDxfId="4"/>
+    <tableColumn id="3" name="Ăn" dataDxfId="2"/>
+    <tableColumn id="4" name="Đi lại" dataDxfId="1"/>
     <tableColumn id="7" name="Khác"/>
-    <tableColumn id="5" name="Total" dataDxfId="3"/>
+    <tableColumn id="5" name="Total" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A18:C22" totalsRowShown="0">
+  <autoFilter ref="A18:C22"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Tên Món"/>
+    <tableColumn id="2" name="Cơm"/>
+    <tableColumn id="3" name="Số Tiền"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="E18:H22" totalsRowShown="0">
+  <autoFilter ref="E18:H22"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Thời gian"/>
+    <tableColumn id="2" name="Cơm2"/>
+    <tableColumn id="3" name="Số Lượng (Kg)"/>
+    <tableColumn id="4" name="Sài Trong Buổi (Chén)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -456,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +511,7 @@
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
@@ -478,74 +519,73 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>3000000</v>
+        <v>2200000</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f ca="1">NOW()</f>
-        <v>43816.714355902775</v>
+      <c r="A4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <f>Table4[[#This Row],[Total]]</f>
-        <v>2780000</v>
+        <v>1940000</v>
       </c>
       <c r="C4">
         <f>C2*10%</f>
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="D4">
         <f>C2-Table2[[#This Row],[S(Bắt buộc)]]-Table2[[#This Row],[T(15%)]]</f>
-        <v>-80000</v>
+        <v>40000</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -554,20 +594,20 @@
         <v>500000</v>
       </c>
       <c r="I4">
-        <f>60000*30</f>
-        <v>1800000</v>
+        <f>30000*30</f>
+        <v>900000</v>
       </c>
       <c r="J4">
         <f>6000*30</f>
         <v>180000</v>
       </c>
       <c r="K4">
-        <f>10000*30</f>
-        <v>300000</v>
+        <f>12000*30</f>
+        <v>360000</v>
       </c>
       <c r="L4">
         <f>Table4[[#This Row],[Tiền trọ]]+Table4[[#This Row],[Ăn]]+Table4[[#This Row],[Đi lại]]+Table4[[#This Row],[Khác]]</f>
-        <v>2780000</v>
+        <v>1940000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -606,11 +646,84 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f>Table5[[#This Row],[Sài Trong Buổi (Chén)]]-2</f>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>20000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>70000</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>